--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Spon2-Itga5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Spon2-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Spon2</t>
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.584981976284374</v>
+        <v>0.6689560000000001</v>
       </c>
       <c r="H2">
-        <v>0.584981976284374</v>
+        <v>2.006868</v>
       </c>
       <c r="I2">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="J2">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N2">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q2">
-        <v>25.07104485648485</v>
+        <v>28.704376160584</v>
       </c>
       <c r="R2">
-        <v>25.07104485648485</v>
+        <v>258.339385445256</v>
       </c>
       <c r="S2">
-        <v>0.03262600544574747</v>
+        <v>0.03147611395238365</v>
       </c>
       <c r="T2">
-        <v>0.03262600544574747</v>
+        <v>0.03147611395238365</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.584981976284374</v>
+        <v>0.6689560000000001</v>
       </c>
       <c r="H3">
-        <v>0.584981976284374</v>
+        <v>2.006868</v>
       </c>
       <c r="I3">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="J3">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q3">
-        <v>31.21432182021043</v>
+        <v>35.69647329546667</v>
       </c>
       <c r="R3">
-        <v>31.21432182021043</v>
+        <v>321.2682596592001</v>
       </c>
       <c r="S3">
-        <v>0.04062051021491758</v>
+        <v>0.03914337851693862</v>
       </c>
       <c r="T3">
-        <v>0.04062051021491758</v>
+        <v>0.03914337851693862</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.584981976284374</v>
+        <v>0.6689560000000001</v>
       </c>
       <c r="H4">
-        <v>0.584981976284374</v>
+        <v>2.006868</v>
       </c>
       <c r="I4">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="J4">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N4">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q4">
-        <v>22.87124441120414</v>
+        <v>26.74610803696934</v>
       </c>
       <c r="R4">
-        <v>22.87124441120414</v>
+        <v>240.714972332724</v>
       </c>
       <c r="S4">
-        <v>0.0297633125776151</v>
+        <v>0.02932875250953661</v>
       </c>
       <c r="T4">
-        <v>0.0297633125776151</v>
+        <v>0.02932875250953661</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.584981976284374</v>
+        <v>0.6689560000000001</v>
       </c>
       <c r="H5">
-        <v>0.584981976284374</v>
+        <v>2.006868</v>
       </c>
       <c r="I5">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="J5">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N5">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q5">
-        <v>19.44219870930587</v>
+        <v>23.00637306978934</v>
       </c>
       <c r="R5">
-        <v>19.44219870930587</v>
+        <v>207.057357628104</v>
       </c>
       <c r="S5">
-        <v>0.02530095114097509</v>
+        <v>0.02522790310176197</v>
       </c>
       <c r="T5">
-        <v>0.02530095114097509</v>
+        <v>0.02522790310176197</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.584981976284374</v>
+        <v>0.6689560000000001</v>
       </c>
       <c r="H6">
-        <v>0.584981976284374</v>
+        <v>2.006868</v>
       </c>
       <c r="I6">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="J6">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N6">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q6">
-        <v>3.609458320842188</v>
+        <v>4.331139567056001</v>
       </c>
       <c r="R6">
-        <v>3.609458320842188</v>
+        <v>38.98025610350401</v>
       </c>
       <c r="S6">
-        <v>0.00469713996788353</v>
+        <v>0.004749360926489427</v>
       </c>
       <c r="T6">
-        <v>0.00469713996788353</v>
+        <v>0.004749360926489427</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.81311686742149</v>
+        <v>3.996041333333333</v>
       </c>
       <c r="H7">
-        <v>3.81311686742149</v>
+        <v>11.988124</v>
       </c>
       <c r="I7">
-        <v>0.8669920806528612</v>
+        <v>0.776116372746167</v>
       </c>
       <c r="J7">
-        <v>0.8669920806528612</v>
+        <v>0.7761163727461668</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N7">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q7">
-        <v>163.4218281960712</v>
+        <v>171.4669927248453</v>
       </c>
       <c r="R7">
-        <v>163.4218281960712</v>
+        <v>1543.202934523608</v>
       </c>
       <c r="S7">
-        <v>0.2126677004169577</v>
+        <v>0.1880241037772814</v>
       </c>
       <c r="T7">
-        <v>0.2126677004169577</v>
+        <v>0.1880241037772814</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.81311686742149</v>
+        <v>3.996041333333333</v>
       </c>
       <c r="H8">
-        <v>3.81311686742149</v>
+        <v>11.988124</v>
       </c>
       <c r="I8">
-        <v>0.8669920806528612</v>
+        <v>0.776116372746167</v>
       </c>
       <c r="J8">
-        <v>0.8669920806528612</v>
+        <v>0.7761163727461668</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q8">
-        <v>203.4658534161515</v>
+        <v>213.2346264072889</v>
       </c>
       <c r="R8">
-        <v>203.4658534161515</v>
+        <v>1919.1116376656</v>
       </c>
       <c r="S8">
-        <v>0.2647786751441262</v>
+        <v>0.2338248830715305</v>
       </c>
       <c r="T8">
-        <v>0.2647786751441262</v>
+        <v>0.2338248830715304</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.81311686742149</v>
+        <v>3.996041333333333</v>
       </c>
       <c r="H9">
-        <v>3.81311686742149</v>
+        <v>11.988124</v>
       </c>
       <c r="I9">
-        <v>0.8669920806528612</v>
+        <v>0.776116372746167</v>
       </c>
       <c r="J9">
-        <v>0.8669920806528612</v>
+        <v>0.7761163727461668</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N9">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q9">
-        <v>149.0827604590791</v>
+        <v>159.7691824597258</v>
       </c>
       <c r="R9">
-        <v>149.0827604590791</v>
+        <v>1437.922642137532</v>
       </c>
       <c r="S9">
-        <v>0.1940076683061285</v>
+        <v>0.1751967353356753</v>
       </c>
       <c r="T9">
-        <v>0.1940076683061285</v>
+        <v>0.1751967353356753</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.81311686742149</v>
+        <v>3.996041333333333</v>
       </c>
       <c r="H10">
-        <v>3.81311686742149</v>
+        <v>11.988124</v>
       </c>
       <c r="I10">
-        <v>0.8669920806528612</v>
+        <v>0.776116372746167</v>
       </c>
       <c r="J10">
-        <v>0.8669920806528612</v>
+        <v>0.7761163727461668</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N10">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q10">
-        <v>126.7310427392989</v>
+        <v>137.4296930096525</v>
       </c>
       <c r="R10">
-        <v>126.7310427392989</v>
+        <v>1236.867237086872</v>
       </c>
       <c r="S10">
-        <v>0.1649204376692796</v>
+        <v>0.1507001111402978</v>
       </c>
       <c r="T10">
-        <v>0.1649204376692796</v>
+        <v>0.1507001111402977</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.996041333333333</v>
+      </c>
+      <c r="H11">
+        <v>11.988124</v>
+      </c>
+      <c r="I11">
+        <v>0.776116372746167</v>
+      </c>
+      <c r="J11">
+        <v>0.7761163727461668</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.474476</v>
+      </c>
+      <c r="N11">
+        <v>19.423428</v>
+      </c>
+      <c r="O11">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="P11">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="Q11">
+        <v>25.87227370767467</v>
+      </c>
+      <c r="R11">
+        <v>232.850463369072</v>
+      </c>
+      <c r="S11">
+        <v>0.02837053942138204</v>
+      </c>
+      <c r="T11">
+        <v>0.02837053942138203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1507453333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.452236</v>
+      </c>
+      <c r="I12">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="J12">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>42.909214</v>
+      </c>
+      <c r="N12">
+        <v>128.727642</v>
+      </c>
+      <c r="O12">
+        <v>0.2422627718984814</v>
+      </c>
+      <c r="P12">
+        <v>0.2422627718984814</v>
+      </c>
+      <c r="Q12">
+        <v>6.468363767501332</v>
+      </c>
+      <c r="R12">
+        <v>58.215273907512</v>
+      </c>
+      <c r="S12">
+        <v>0.007092958714459631</v>
+      </c>
+      <c r="T12">
+        <v>0.00709295871445963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1507453333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.452236</v>
+      </c>
+      <c r="I13">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="J13">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>53.36146666666667</v>
+      </c>
+      <c r="N13">
+        <v>160.0844</v>
+      </c>
+      <c r="O13">
+        <v>0.3012755448569878</v>
+      </c>
+      <c r="P13">
+        <v>0.3012755448569878</v>
+      </c>
+      <c r="Q13">
+        <v>8.043992079822223</v>
+      </c>
+      <c r="R13">
+        <v>72.3959287184</v>
+      </c>
+      <c r="S13">
+        <v>0.008820732069566236</v>
+      </c>
+      <c r="T13">
+        <v>0.008820732069566234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1507453333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.452236</v>
+      </c>
+      <c r="I14">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="J14">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>39.98186433333333</v>
+      </c>
+      <c r="N14">
+        <v>119.945593</v>
+      </c>
+      <c r="O14">
+        <v>0.2257351364921847</v>
+      </c>
+      <c r="P14">
+        <v>0.2257351364921847</v>
+      </c>
+      <c r="Q14">
+        <v>6.027079466216444</v>
+      </c>
+      <c r="R14">
+        <v>54.243715195948</v>
+      </c>
+      <c r="S14">
+        <v>0.006609063336454016</v>
+      </c>
+      <c r="T14">
+        <v>0.006609063336454014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3.81311686742149</v>
-      </c>
-      <c r="H11">
-        <v>3.81311686742149</v>
-      </c>
-      <c r="I11">
-        <v>0.8669920806528612</v>
-      </c>
-      <c r="J11">
-        <v>0.8669920806528612</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>6.17020432623986</v>
-      </c>
-      <c r="N11">
-        <v>6.17020432623986</v>
-      </c>
-      <c r="O11">
-        <v>0.03531473908425267</v>
-      </c>
-      <c r="P11">
-        <v>0.03531473908425267</v>
-      </c>
-      <c r="Q11">
-        <v>23.52771019182226</v>
-      </c>
-      <c r="R11">
-        <v>23.52771019182226</v>
-      </c>
-      <c r="S11">
-        <v>0.03061759911636914</v>
-      </c>
-      <c r="T11">
-        <v>0.03061759911636914</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1507453333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.452236</v>
+      </c>
+      <c r="I15">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="J15">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>34.39145933333334</v>
+      </c>
+      <c r="N15">
+        <v>103.174378</v>
+      </c>
+      <c r="O15">
+        <v>0.1941720551610951</v>
+      </c>
+      <c r="P15">
+        <v>0.1941720551610951</v>
+      </c>
+      <c r="Q15">
+        <v>5.184352001023111</v>
+      </c>
+      <c r="R15">
+        <v>46.659168009208</v>
+      </c>
+      <c r="S15">
+        <v>0.005684960838046362</v>
+      </c>
+      <c r="T15">
+        <v>0.005684960838046361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1507453333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.452236</v>
+      </c>
+      <c r="I16">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="J16">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.474476</v>
+      </c>
+      <c r="N16">
+        <v>19.423428</v>
+      </c>
+      <c r="O16">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="P16">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="Q16">
+        <v>0.9759970427786666</v>
+      </c>
+      <c r="R16">
+        <v>8.783973385008</v>
+      </c>
+      <c r="S16">
+        <v>0.00107024078711299</v>
+      </c>
+      <c r="T16">
+        <v>0.00107024078711299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06722566666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.201677</v>
+      </c>
+      <c r="I17">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="J17">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>42.909214</v>
+      </c>
+      <c r="N17">
+        <v>128.727642</v>
+      </c>
+      <c r="O17">
+        <v>0.2422627718984814</v>
+      </c>
+      <c r="P17">
+        <v>0.2422627718984814</v>
+      </c>
+      <c r="Q17">
+        <v>2.884600517292667</v>
+      </c>
+      <c r="R17">
+        <v>25.961404655634</v>
+      </c>
+      <c r="S17">
+        <v>0.003163141887545607</v>
+      </c>
+      <c r="T17">
+        <v>0.003163141887545606</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06722566666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.201677</v>
+      </c>
+      <c r="I18">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="J18">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>53.36146666666667</v>
+      </c>
+      <c r="N18">
+        <v>160.0844</v>
+      </c>
+      <c r="O18">
+        <v>0.3012755448569878</v>
+      </c>
+      <c r="P18">
+        <v>0.3012755448569878</v>
+      </c>
+      <c r="Q18">
+        <v>3.587260170977778</v>
+      </c>
+      <c r="R18">
+        <v>32.2853415388</v>
+      </c>
+      <c r="S18">
+        <v>0.003933651415619079</v>
+      </c>
+      <c r="T18">
+        <v>0.003933651415619078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06722566666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.201677</v>
+      </c>
+      <c r="I19">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="J19">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>39.98186433333333</v>
+      </c>
+      <c r="N19">
+        <v>119.945593</v>
+      </c>
+      <c r="O19">
+        <v>0.2257351364921847</v>
+      </c>
+      <c r="P19">
+        <v>0.2257351364921847</v>
+      </c>
+      <c r="Q19">
+        <v>2.687807484384556</v>
+      </c>
+      <c r="R19">
+        <v>24.190267359461</v>
+      </c>
+      <c r="S19">
+        <v>0.002947346223003115</v>
+      </c>
+      <c r="T19">
+        <v>0.002947346223003114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06722566666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.201677</v>
+      </c>
+      <c r="I20">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="J20">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>34.39145933333334</v>
+      </c>
+      <c r="N20">
+        <v>103.174378</v>
+      </c>
+      <c r="O20">
+        <v>0.1941720551610951</v>
+      </c>
+      <c r="P20">
+        <v>0.1941720551610951</v>
+      </c>
+      <c r="Q20">
+        <v>2.311988781322889</v>
+      </c>
+      <c r="R20">
+        <v>20.807899031906</v>
+      </c>
+      <c r="S20">
+        <v>0.002535237899978498</v>
+      </c>
+      <c r="T20">
+        <v>0.002535237899978498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06722566666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.201677</v>
+      </c>
+      <c r="I21">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="J21">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.474476</v>
+      </c>
+      <c r="N21">
+        <v>19.423428</v>
+      </c>
+      <c r="O21">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="P21">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="Q21">
+        <v>0.4352509654173334</v>
+      </c>
+      <c r="R21">
+        <v>3.917258688756</v>
+      </c>
+      <c r="S21">
+        <v>0.0004772794541402863</v>
+      </c>
+      <c r="T21">
+        <v>0.0004772794541402862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.2657973333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.797392</v>
+      </c>
+      <c r="I22">
+        <v>0.05162350562079702</v>
+      </c>
+      <c r="J22">
+        <v>0.05162350562079701</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>42.909214</v>
+      </c>
+      <c r="N22">
+        <v>128.727642</v>
+      </c>
+      <c r="O22">
+        <v>0.2422627718984814</v>
+      </c>
+      <c r="P22">
+        <v>0.2422627718984814</v>
+      </c>
+      <c r="Q22">
+        <v>11.40515465662933</v>
+      </c>
+      <c r="R22">
+        <v>102.646391909664</v>
+      </c>
+      <c r="S22">
+        <v>0.01250645356681112</v>
+      </c>
+      <c r="T22">
+        <v>0.01250645356681112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2657973333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.797392</v>
+      </c>
+      <c r="I23">
+        <v>0.05162350562079702</v>
+      </c>
+      <c r="J23">
+        <v>0.05162350562079701</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>53.36146666666667</v>
+      </c>
+      <c r="N23">
+        <v>160.0844</v>
+      </c>
+      <c r="O23">
+        <v>0.3012755448569878</v>
+      </c>
+      <c r="P23">
+        <v>0.3012755448569878</v>
+      </c>
+      <c r="Q23">
+        <v>14.18333554275556</v>
+      </c>
+      <c r="R23">
+        <v>127.6500198848</v>
+      </c>
+      <c r="S23">
+        <v>0.01555289978333339</v>
+      </c>
+      <c r="T23">
+        <v>0.01555289978333339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.2657973333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.797392</v>
+      </c>
+      <c r="I24">
+        <v>0.05162350562079702</v>
+      </c>
+      <c r="J24">
+        <v>0.05162350562079701</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>39.98186433333333</v>
+      </c>
+      <c r="N24">
+        <v>119.945593</v>
+      </c>
+      <c r="O24">
+        <v>0.2257351364921847</v>
+      </c>
+      <c r="P24">
+        <v>0.2257351364921847</v>
+      </c>
+      <c r="Q24">
+        <v>10.62707292149511</v>
+      </c>
+      <c r="R24">
+        <v>95.643656293456</v>
+      </c>
+      <c r="S24">
+        <v>0.01165323908751568</v>
+      </c>
+      <c r="T24">
+        <v>0.01165323908751568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2657973333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.797392</v>
+      </c>
+      <c r="I25">
+        <v>0.05162350562079702</v>
+      </c>
+      <c r="J25">
+        <v>0.05162350562079701</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>34.39145933333334</v>
+      </c>
+      <c r="N25">
+        <v>103.174378</v>
+      </c>
+      <c r="O25">
+        <v>0.1941720551610951</v>
+      </c>
+      <c r="P25">
+        <v>0.1941720551610951</v>
+      </c>
+      <c r="Q25">
+        <v>9.141158180241778</v>
+      </c>
+      <c r="R25">
+        <v>82.270423622176</v>
+      </c>
+      <c r="S25">
+        <v>0.0100238421810105</v>
+      </c>
+      <c r="T25">
+        <v>0.0100238421810105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.2657973333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.797392</v>
+      </c>
+      <c r="I26">
+        <v>0.05162350562079702</v>
+      </c>
+      <c r="J26">
+        <v>0.05162350562079701</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.474476</v>
+      </c>
+      <c r="N26">
+        <v>19.423428</v>
+      </c>
+      <c r="O26">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="P26">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="Q26">
+        <v>1.720898455530667</v>
+      </c>
+      <c r="R26">
+        <v>15.488086099776</v>
+      </c>
+      <c r="S26">
+        <v>0.001887071002126327</v>
+      </c>
+      <c r="T26">
+        <v>0.001887071002126326</v>
       </c>
     </row>
   </sheetData>
